--- a/biology/Zoologie/Euploea_sylvester/Euploea_sylvester.xlsx
+++ b/biology/Zoologie/Euploea_sylvester/Euploea_sylvester.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euploea sylvester est un insecte lépidoptère  de la famille des  Nymphalidae, de la sous-famille des Danainae et du genre  Euploea.
 </t>
@@ -511,14 +523,86 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Euploea sylvester (Fabricius, 1793)
-Synonymes :Papilio core (Fabricius, 1793)[1].
-Noms vernaculaires
-Euploea sylvester se nomme en anglais Two-brand Crow ou Double-branded Crow.
-Sous-espèces
-Euploea sylvester sylvester dans le Nord-Est de l'Australie.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea sylvester (Fabricius, 1793)
+Synonymes :Papilio core (Fabricius, 1793).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea sylvester se nomme en anglais Two-brand Crow ou Double-branded Crow.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Euploea sylvester sylvester dans le Nord-Est de l'Australie.
 Euploea sylvester agema (Fruhstorfer, 1910) est de la Nouvelle-Guinée
 Euploea sylvester amarynceus (Fruhstorfer, 1910)
 Euploea sylvester coreta (Godart, 1819) à Ceylan et dans le Sud de l'Inde
@@ -533,75 +617,7 @@
 Euploea sylvester swinhoei (Wallace, 1866) à Taïwan.
 Euploea sylvester timora (Fruhstorfer, 1898) à Timor.
 Euploea sylvester tristis (Butler, 1866) Nouvelle-Guinée et Nouvelle-Calédonie.
-Euploea sylvester tyrianthia (Moore, 1883) à Bornéo[1].</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Euploea_sylvester</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euploea_sylvester</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un grand papillon marron foncé aux ailes bordées d'une ligne submarginale de points blancs doublée d'une ligne de taches ovales blanches. Ces taches blanches sont plus ou moins importantes suivant des sous-espèces.
-Chenille
-L'œuf est blanc, la chenille verte à orange pâle cerclée de lignes blanches, est caractérisée par ses cornes marron foncé, dont une paire de grande taille et deux paires recourbées en crochet.
-Sa tête est blanche rayée de marron foncé.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Euploea_sylvester</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Euploea_sylvester</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea sylvester vit plusieurs mois et n'a de diapause que s'il lui faut attendre des pluies nécessaires à la croissance des plantes hôte de ses chenilles[2],[3].
-C'est un migrateur. Dans le Sud de l'Inde Euploea sylvester effectue sa migration avec deux autres espèces, Euploea core et Tirumala septentrionis sur 350 à 500 km entre  les Ghâts occidentaux et les Ghâts orientaux[4]. Ses migrations sont en étude à Taïwan[5].
-Plantes hôtes
-Ses plantes hôtes sont diverses, des espèces des genres Hoya, Ficus (Ficus glomerata, Ficus microcarpa, Ficus racemosa, Ficus retusa, Ficus glomerata, Ficus racemosa), ou les espèces Marsdenia geminata, Marsdenia pleiadenium et Inchocarpus frutescens[1].
-</t>
+Euploea sylvester tyrianthia (Moore, 1883) à Bornéo.</t>
         </is>
       </c>
     </row>
@@ -626,16 +642,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euploea sylvester est présent dans le Sud de l'Asie, en Inde, Indochine, Malaisie, à Ceylan, Taïwan, en Nouvelle-Guinée et Nouvelle-Calédonie, à Bornéo, à Timor et en Australie[1].
-Biotope
-Divers mais fonction de la présence des plantes hôtes de la chenille.
-Protection
-Pas de statut de protection particulier.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un grand papillon marron foncé aux ailes bordées d'une ligne submarginale de points blancs doublée d'une ligne de taches ovales blanches. Ces taches blanches sont plus ou moins importantes suivant des sous-espèces.
 </t>
         </is>
       </c>
@@ -661,10 +675,228 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'œuf est blanc, la chenille verte à orange pâle cerclée de lignes blanches, est caractérisée par ses cornes marron foncé, dont une paire de grande taille et deux paires recourbées en crochet.
+Sa tête est blanche rayée de marron foncé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea sylvester vit plusieurs mois et n'a de diapause que s'il lui faut attendre des pluies nécessaires à la croissance des plantes hôte de ses chenilles,.
+C'est un migrateur. Dans le Sud de l'Inde Euploea sylvester effectue sa migration avec deux autres espèces, Euploea core et Tirumala septentrionis sur 350 à 500 km entre  les Ghâts occidentaux et les Ghâts orientaux. Ses migrations sont en étude à Taïwan.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont diverses, des espèces des genres Hoya, Ficus (Ficus glomerata, Ficus microcarpa, Ficus racemosa, Ficus retusa, Ficus glomerata, Ficus racemosa), ou les espèces Marsdenia geminata, Marsdenia pleiadenium et Inchocarpus frutescens.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euploea sylvester est présent dans le Sud de l'Asie, en Inde, Indochine, Malaisie, à Ceylan, Taïwan, en Nouvelle-Guinée et Nouvelle-Calédonie, à Bornéo, à Timor et en Australie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Divers mais fonction de la présence des plantes hôtes de la chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euploea_sylvester</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Philatélie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-espèce Euploea sylvester harrisii figure sur une émission du Laos de 1993 (valeur faciale : 150 k.).
 </t>
